--- a/includes/uploads/attendance/excel_test.xlsx
+++ b/includes/uploads/attendance/excel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D5F3D-5724-4902-BDEE-40E0BEDA04AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB3641A-28B3-4FF0-A472-1228EDD315E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D15B1F96-345D-47EB-B706-511BBD7BD739}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>enrollment</t>
   </si>
@@ -36,16 +36,22 @@
     <t>date</t>
   </si>
   <si>
-    <t>2023B10001</t>
-  </si>
-  <si>
-    <t>2023B10002</t>
-  </si>
-  <si>
-    <t>2023B10003</t>
-  </si>
-  <si>
     <t>units9</t>
+  </si>
+  <si>
+    <t>units7</t>
+  </si>
+  <si>
+    <t>units8</t>
+  </si>
+  <si>
+    <t>270823AG0001</t>
+  </si>
+  <si>
+    <t>units2</t>
+  </si>
+  <si>
+    <t>270823DSB0002</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FE8D4-DBEB-47F7-B665-92B2F5517B3D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,35 +457,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2">
-        <v>45178</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2">
-        <v>45176</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>45176</v>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45163</v>
       </c>
     </row>
   </sheetData>
